--- a/CrossWatch/ErrorLog.xlsx
+++ b/CrossWatch/ErrorLog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>DATE</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Added @Expose in categoryId in Category table</t>
+  </si>
+  <si>
+    <t>HTTP Status 500 - Request processing failed; nested exception is org.springframework.webflow.execution.ActionExecutionException: Exception thrown executing [AnnotatedAction@50e22dfb targetAction = [EvaluateAction@791fff1e expression = CheckoutHandler.initflow(), resultExpression = flowScope.mainClass], attributes = map[[empty]]] in state 'null' of flow 'cart' -- action execution attributes were 'map[[empty]]'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP Status 500 - Request processing failed; nested exception is org.springframework.webflow.execution.ActionExecutionException: Exception thrown executing [AnnotatedAction@50e22dfb targetAction = [EvaluateAction@791fff1e expression = </t>
+  </si>
+  <si>
+    <t>CheckoutHandler.initflow(), resultExpression = flowScope.mainClass], attributes = map[[empty]]] in state 'null' of flow 'cart' -- action execution attributes were 'map[[empty]]'</t>
+  </si>
+  <si>
+    <t>Added @Component in MainClass.java</t>
   </si>
 </sst>
 </file>
@@ -506,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,16 +526,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="235" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="139.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -690,6 +702,24 @@
       </c>
       <c r="C16" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="87" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
